--- a/Excel配置表/全局随机化配置文件.xlsx
+++ b/Excel配置表/全局随机化配置文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\Excel配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB23A6-3C30-4626-9FC5-2E309CD192AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB99F45-E5B8-4CA6-8D3C-1EA60FDBC26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="2844" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1968" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalRandomConfig" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一行节点一个进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,22 @@
   </si>
   <si>
     <t>单层最小节点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffcultyLayerInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度层间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔几层上升一难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,13 +599,13 @@
     <col min="9" max="16384" width="11.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,25 +613,28 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,8 +659,11 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,39 +671,45 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,32 +735,35 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f>IF(C7&lt;&gt;"", COUNTIF($C$6:C7, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f>IF(C8&lt;&gt;"", COUNTIF($C$6:C8, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f>IF(C9&lt;&gt;"", COUNTIF($C$6:C9, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
         <f>IF(C10&lt;&gt;"", COUNTIF($C$6:C10, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f>IF(C11&lt;&gt;"", COUNTIF($C$6:C11, "&lt;&gt;"), "")</f>
         <v/>

--- a/Excel配置表/全局随机化配置文件.xlsx
+++ b/Excel配置表/全局随机化配置文件.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\Excel配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB99F45-E5B8-4CA6-8D3C-1EA60FDBC26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C1C7DA-BA2F-4253-A5A7-B1D9B04DFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1968" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GlobalRandomConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalRandom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单群系最小层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单群系最大层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinBiomeLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxBiomeLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalBiomeCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,35 +100,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxLayerNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单层最大节点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinLayerNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单层最小节点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DiffcultyLayerInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度层间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔几层上升一难度</t>
+    <t>ConfigType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalRandom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +247,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -292,8 +259,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,173 +566,119 @@
     <col min="9" max="16384" width="11.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <f>IF(C6&lt;&gt;"", COUNTIF($C$6:C6, "&lt;&gt;"), "")</f>
+      <c r="B7" s="2">
+        <f>IF(C7&lt;&gt;"", COUNTIF($C$7:C7, "&lt;&gt;"), "")</f>
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="str">
-        <f>IF(C7&lt;&gt;"", COUNTIF($C$6:C7, "&lt;&gt;"), "")</f>
-        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>IF(C8&lt;&gt;"", COUNTIF($C$6:C8, "&lt;&gt;"), "")</f>
+        <f>IF(C8&lt;&gt;"", COUNTIF($C$7:C8, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>IF(C9&lt;&gt;"", COUNTIF($C$6:C9, "&lt;&gt;"), "")</f>
+        <f>IF(C9&lt;&gt;"", COUNTIF($C$7:C9, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>IF(C10&lt;&gt;"", COUNTIF($C$6:C10, "&lt;&gt;"), "")</f>
+        <f>IF(C10&lt;&gt;"", COUNTIF($C$7:C10, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>IF(C11&lt;&gt;"", COUNTIF($C$6:C11, "&lt;&gt;"), "")</f>
+        <f>IF(C11&lt;&gt;"", COUNTIF($C$7:C11, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="str">
+        <f>IF(C12&lt;&gt;"", COUNTIF($C$7:C12, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
